--- a/biology/Botanique/Forêt_de_Lamotte-Beuvron/Forêt_de_Lamotte-Beuvron.xlsx
+++ b/biology/Botanique/Forêt_de_Lamotte-Beuvron/Forêt_de_Lamotte-Beuvron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Lamotte-Beuvron</t>
+          <t>Forêt_de_Lamotte-Beuvron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Lamotte-Beuvron est une forêt domaniale française située sur le territoire de cinq communes des départements de Loir-et-Cher et du Loiret (région Centre-Val de Loire) dans la région naturelle de Sologne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Lamotte-Beuvron</t>
+          <t>Forêt_de_Lamotte-Beuvron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt, d'une superficie de 2 000 hectares, s'étend sur le territoire de cinq communes solognotes[1] : Vouzon (pour sa plus grande partie), Chaumont-sur-Tharonne, Souvigny-en-Sologne et Lamotte-Beuvron dans l'est du Loir-et-Cher,  Sennely dans le sud du Loiret[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt, d'une superficie de 2 000 hectares, s'étend sur le territoire de cinq communes solognotes : Vouzon (pour sa plus grande partie), Chaumont-sur-Tharonne, Souvigny-en-Sologne et Lamotte-Beuvron dans l'est du Loir-et-Cher,  Sennely dans le sud du Loiret.
 Elle est traversée par la route nationale 20 et les routes départementales 125, 129 et 153. Elle est longée, à l'ouest, par l'autoroute A71 et la ligne ferroviaire Paris - Toulouse.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Lamotte-Beuvron</t>
+          <t>Forêt_de_Lamotte-Beuvron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est issue du boisement de domaines acquis par Napoléon III au milieu du XIXe siècle[1] (ancienne seigneurie de Vouzon-Lamotte du XVIIIe siècle et domaine de la Grillière).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est issue du boisement de domaines acquis par Napoléon III au milieu du XIXe siècle (ancienne seigneurie de Vouzon-Lamotte du XVIIIe siècle et domaine de la Grillière).
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Lamotte-Beuvron</t>
+          <t>Forêt_de_Lamotte-Beuvron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est composée à 60 % de feuillus (chênes, châtaigniers, bouleaux) et à 35 % de résineux (pins sylvestres et maritimes). Les 5 % du territoire restant sont occupés par des étangs (Villory, des Landes, de la Busonnière, Neuf, du Saussay, des Bates, Batardeau, Pillardière...), des landes et des cultures à gibiers[1].
-La forêt de Lamotte-Beuvron est située dans la zone dite de Sologne inscrite au réseau Natura 2000[3] ; elle héberge également une zone naturelle d'intérêt écologique, faunistique et floristique de type 2[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est composée à 60 % de feuillus (chênes, châtaigniers, bouleaux) et à 35 % de résineux (pins sylvestres et maritimes). Les 5 % du territoire restant sont occupés par des étangs (Villory, des Landes, de la Busonnière, Neuf, du Saussay, des Bates, Batardeau, Pillardière...), des landes et des cultures à gibiers.
+La forêt de Lamotte-Beuvron est située dans la zone dite de Sologne inscrite au réseau Natura 2000 ; elle héberge également une zone naturelle d'intérêt écologique, faunistique et floristique de type 2.
 </t>
         </is>
       </c>
